--- a/soberano/test_cases/service_expense_record_test_cases.xlsx
+++ b/soberano/test_cases/service_expense_record_test_cases.xlsx
@@ -147,7 +147,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,11 +168,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -223,7 +218,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -237,10 +232,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -267,20 +258,20 @@
   </sheetPr>
   <dimension ref="A1:AMJ46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="16:16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
@@ -418,7 +409,7 @@
     </row>
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -450,7 +441,7 @@
     </row>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -482,7 +473,7 @@
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -516,7 +507,7 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -550,7 +541,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>24</v>
@@ -582,7 +573,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>26</v>
@@ -611,7 +602,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>24</v>
@@ -640,7 +631,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>26</v>
@@ -672,12 +663,12 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -704,12 +695,12 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -736,7 +727,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>26</v>
@@ -765,7 +756,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>26</v>
@@ -794,7 +785,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>24</v>
@@ -826,7 +817,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>24</v>
@@ -858,7 +849,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>26</v>
@@ -887,12 +878,12 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="0" t="s">
@@ -916,7 +907,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>26</v>
@@ -945,7 +936,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -974,7 +965,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>26</v>
@@ -1003,12 +994,12 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="0" t="s">
@@ -1032,12 +1023,12 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="0" t="s">
@@ -1064,7 +1055,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>24</v>
@@ -1093,7 +1084,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>24</v>
@@ -1122,69 +1113,69 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="5"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="5"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="5"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="5"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="5"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="5"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="5"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="5"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="5"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="5"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="5"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F42" s="5"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="5"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="5"/>
+      <c r="F46" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
